--- a/tools/import/schedule.xlsx
+++ b/tools/import/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Talks" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,9 +49,98 @@
     <t xml:space="preserve">Room ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Begrüßung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh je, Java ist nicht mehr kostenlos – und nun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle hat sein Lizenzmodell geändert, ab JDK 11 kann es in Produktion nicht mehr kostenfrei eingesetzt werden. Seit Januar 2019 gibt es zudem keine freien Updates mehr für Oracles JDK 8. Was sind die Alternativen und wann ergibt der Einsatz welcher JDK-Version Sinn?
+Wir werfen einen Blick auf die Kosten für das Oracle JDK, auf die Preismodelle von anderen kommerziellen Anbietern sowie auf die freien Versionen. Wir diskutieren weiterhin, ob man bei Java 8 bleiben oder auf 11 beziehungsweise das aktuellste JDK-Release wechseln sollte und welche Konsequenzen das mit sich bringt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Reise durch die JDKs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viele von Euch, so wie ich, arbeiten im Job noch mit JDK 8. Daher möchte ich Euch mitnehmen auf die Reise durch die JDKs. Wir starten unsere Reise bei JDK 8 und wandern bis zur aktuellen Version. Außerdem wagen wir einen Blick auf die Attraktionen der zukünftigen Versionen. Wir halten unter anderem an folgenden Stationen:
+- Jshell
+- Private Methods in Interfaces
+- Optional class
+- Schlüsselwort "var"
+- Erweiterung der Collections
+- HttpClient/HttpRequest neues FluentAPI
+- Switch Expressions
+- Erweiterung der String-Klasse
+Diese werden zum Teil anhand von Quelltext-Beispielen veranschaulicht. Ich wünsche Euch eine gute Reise.
+P.S.: Bringt festes Schuhwerk mit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java und die GraalVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die GraalVM ist eine universelle virtuelle Maschine (VM) für Anwendungen, die in JavaScript, Python, Ruby, R oder mit den JVM-basierten Programmiersprachen Java, Scala, Kotlin, Clojure und LLVM-basierten Sprachen wie C/C++ geschrieben wurden. Im August 2020 wird die GraalVM 20.2 freigegeben, mit Performance-Verbesserungen und polyglotter Unterstützung für verschiedene Programmiersprachen. Sie ermöglicht damit die Interoperabilität in einer gemeinsamen Laufzeitumgebung. GraalVM kann eigenständig oder im Kontext von OpenJDK, Node.js, Oracle-Datenbank oder MySQL betrieben werden.
+Mit GraalVMs Ahead-of-Time-Fähigkeit kompilierte Native Images verfügen über eine optimierte Start-up-Zeit und sie verringern den Memory-Verbrauch von JVM-basierten Applikationen. Die GraalVM kann wahlweise als Open Source Community Edition (CE) oder als Enterprise Edition (EE) mit OTN-Lizenz verwendet werden.
+Im Vortrag wird die GraalVM-Architektur im Java-Ökosystem dargestellt und die Einsatzgebiete werden erläutert, beispielsweise der in Java entwickelte C2 JIT Compiler oder die Verwendung von GraalVM Native Images. GraalVM und OpenJDK können auch für Microservices-Frameworks verwendet werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
+    <t xml:space="preserve">Mittagspause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse MicroProfile – der Java-Standard für die Cloud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Java Enterprise Edition hat sich über zwei Jahrzehnte entwickelt, um verteilte Anwendungen zu betreiben. Mit dem MicroProfile beginnt ein Reload von Java EE für Microservices und die Cloud. Bestehende Standards von Java EE werden weiter verwendet oder auch aussortiert. Neue Standards werden aufgenommen. 
+Mit der bald erscheinenden Version 4.0 ist das MicroProfile mehr als erwachsen geworden. Fast zeitgleich wird Jakarta EE in Version 9 erscheinen. Hier lohnt sich ein Blick, wie und ob diese beiden Standards miteinander interagieren und in Beziehung stehen. Das Hauptziel wird es aber sein, das Eclipse MicroProfile und seine einzelnen Teile kennenzulernen. Beispielhaft seien hier nur einige genannt, angefangen von Config, Health, Opentracing, Open-Api, Fault-Tolerance und vieles andere mehr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud-native Java mit Quarkus und MicroProfile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Innovationskraft der Java-Welt ist ungebrochen: Noch immer werden regelmäßig höchst interessante neue Projekte vorgestellt. Dieser praxisnahe Talk beleuchtet, wie zwei solche Projekte miteinander kombiniert werden können, um zeitgemäße Anwendungen für die Cloud zu entwickeln. MicroProfile bietet eine ganze Reihe nützlicher APIs für Cloud-basierte Anwendungen. Hierzu zählen die Unterstützung von Fault Tolerance, Open API, Health Checks, Metrics und Open Tracing. Mit Hilfe von Quarkus (und der GraalVM) werden daraus native Anwendungen, die innerhalb von Millisekunden starten und einen extrem kleinen Speicherverbrauch haben. Eine Beispielanwendung wird während des Talks live erstellt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software-Modularisierung – aber wie? Empfehlungen mit und gegen den Trend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software-Architektur ist zunächst etwas sehr Einfaches: Wir definieren klar abgegrenzte Bausteine und die Beziehungen zwischen diesen Bausteinen. Das war's. Mit etwas Mühe lassen sich in jeder Anwendung fachliche Schnitte finden, um die geforderten Bausteine voneinander abzugrenzen. Doch welche Modularisierungstechnik sollte man dabei wählen? Java Package? JAR? Jigsaw Modul? OSGI Bundle? ReSTful API? Microservice? Docker-Container? Kubernetes Pod? 
+In dieser Session möchte Thorsten Teilnehmerinnen und Teilnehmer ermutigen, Entscheidungen im Zweifel auch gegen den aktuellen Markthype und für die zu ihren Anforderungen passende Technik zu treffen. Dazu berichtet er über unsere selbst gemachten Erfahrungen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a match: Kotlin, Micronaut und GraalVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das JVM-Framework Micronaut entwickelt sich zunehmend als Konkurrenz zum etablierten Spring Boot. Unter anderem deshalb, weil es das leistungsstarke und dennoch schlanke Framework schafft, Startzeit und Speicherverbrauch erheblich zu reduzieren. Dies macht es nicht nur für die Entwicklung containerisierter Microservices interessant, sondern auch für Serverless Computing. 
+Aber auch die Unterstützung von Kotlin als first-class Language – neben Java und Groovy – trägt zum Erfolg bei, finden doch immer mehr Entwickler Gefallen an der effizienten Java-Alternative. Zudem vereinfacht Micronaut die Entwicklung für Oracles GraalVM. Diese ermöglicht das Erzeugen nativer Images, die Startzeit und Speicherverbrauch nochmals senken. 
+Der Vortrag umfasst eine Einführung in Micronaut. Dazu wird – nach einer Vorstellung der grundlegenden Technologien – live ein Microservice mit Kotlin und Micronaut codiert. Anschließend wird der Service per GraalVM als natives Binary kompiliert. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
     <t xml:space="preserve">How to fill in this spreadsheet</t>
   </si>
   <si>
@@ -73,10 +162,55 @@
     <t xml:space="preserve">Avatar</t>
   </si>
   <si>
+    <t xml:space="preserve">Falk Sippach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12143_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Geberding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12111_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Weigend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12024_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sascha Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12145_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thilo Frotscher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12192_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorsten Maier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12141_1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">- Keep the speaker IDs consistent between updates</t>
   </si>
   <si>
+    <t xml:space="preserve">Christian Schwörer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12353_1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">- The avatar should be a URL to an image, but can be left blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hörsaal „Nürnberg“</t>
   </si>
   <si>
     <t xml:space="preserve">- Keep the room IDs consistent between updates</t>
@@ -308,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,6 +457,14 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -480,7 +622,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="room_id" displayName="room_id" ref="A2:A1048576" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name=""/>
+    <tableColumn id="1" name="H"/>
   </tableColumns>
 </table>
 </file>
@@ -498,15 +640,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.72"/>
@@ -544,79 +686,3268 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="F2" s="1" t="n">
+        <v>44076.375</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>44076.3854166667</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>44076.3854166667</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>44076.4166666667</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>44076.4270833333</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>44076.4583333333</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>44076.46875</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>44076.5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="7"/>
-      <c r="K6" s="10" t="n">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>44076.5</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>44076.5416666667</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="17"/>
-      <c r="M10" s="18" t="s">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>44076.5416666667</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>44076.5729166667</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>44076.5833333333</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>44076.6145833333</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>44076.625</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>44076.65625</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>44076.6666666667</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>44076.6979166667</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="17"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="17"/>
-      <c r="M12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="19"/>
+      <c r="H12" s="4"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="17"/>
-      <c r="M13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L14" s="17"/>
-      <c r="M14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="19"/>
+      <c r="H14" s="4"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L15" s="17"/>
-      <c r="M15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
+      <c r="H16" s="4"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H252" s="4"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H258" s="4"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H265" s="4"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H266" s="4"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H267" s="4"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H268" s="4"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H269" s="4"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H270" s="4"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H271" s="4"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H272" s="4"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H273" s="4"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H274" s="4"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H275" s="4"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H276" s="4"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H277" s="4"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H278" s="4"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H279" s="4"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H280" s="4"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H281" s="4"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H282" s="4"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H283" s="4"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H284" s="4"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H285" s="4"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H286" s="4"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H287" s="4"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H288" s="4"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H290" s="4"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H291" s="4"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H292" s="4"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H293" s="4"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H294" s="4"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H295" s="4"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H296" s="4"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H297" s="4"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H298" s="4"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H299" s="4"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H300" s="4"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H302" s="4"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H304" s="4"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H305" s="4"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H306" s="4"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H307" s="4"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H309" s="4"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H310" s="4"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H311" s="4"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="4"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H313" s="4"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H314" s="4"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H315" s="4"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H316" s="4"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H317" s="4"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H318" s="4"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H319" s="4"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H320" s="4"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H321" s="4"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H322" s="4"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H323" s="4"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H324" s="4"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H325" s="4"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H326" s="4"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H327" s="4"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H328" s="4"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H329" s="4"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H330" s="4"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H331" s="4"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H332" s="4"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H333" s="4"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H334" s="4"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H335" s="4"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H336" s="4"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H337" s="4"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H338" s="4"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H339" s="4"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H340" s="4"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H341" s="4"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H342" s="4"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H343" s="4"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H344" s="4"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H345" s="4"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H346" s="4"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H347" s="4"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H348" s="4"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H349" s="4"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H350" s="4"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H351" s="4"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H352" s="4"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H353" s="4"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H354" s="4"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H355" s="4"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H356" s="4"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H357" s="4"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H358" s="4"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H359" s="4"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H360" s="4"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H361" s="4"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H362" s="4"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H363" s="4"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H364" s="4"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H365" s="4"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H366" s="4"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H367" s="4"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H368" s="4"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H369" s="4"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H370" s="4"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H371" s="4"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H372" s="4"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H373" s="4"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H374" s="4"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H375" s="4"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H376" s="4"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H377" s="4"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H378" s="4"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H379" s="4"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H380" s="4"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H381" s="4"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H382" s="4"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H383" s="4"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H384" s="4"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H385" s="4"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H386" s="4"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H387" s="4"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H388" s="4"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H389" s="4"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H390" s="4"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H391" s="4"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H392" s="4"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H393" s="4"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H394" s="4"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H395" s="4"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H396" s="4"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H397" s="4"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H398" s="4"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H399" s="4"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H400" s="4"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H401" s="4"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H402" s="4"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H403" s="4"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H404" s="4"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H405" s="4"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H406" s="4"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H407" s="4"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H408" s="4"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H409" s="4"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H410" s="4"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H411" s="4"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H412" s="4"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H413" s="4"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H414" s="4"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H415" s="4"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H416" s="4"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H417" s="4"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H418" s="4"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H419" s="4"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H420" s="4"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H421" s="4"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H422" s="4"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H423" s="4"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H424" s="4"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H425" s="4"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H426" s="4"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H427" s="4"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H428" s="4"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H429" s="4"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H430" s="4"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H431" s="4"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H432" s="4"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H433" s="4"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H434" s="4"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H435" s="4"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H436" s="4"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H437" s="4"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H438" s="4"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H439" s="4"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H440" s="4"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H441" s="4"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H442" s="4"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H443" s="4"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H444" s="4"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H445" s="4"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H446" s="4"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H447" s="4"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H448" s="4"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H449" s="4"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H450" s="4"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H451" s="4"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H452" s="4"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H453" s="4"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H454" s="4"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H455" s="4"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H456" s="4"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H457" s="4"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H458" s="4"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H459" s="4"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H460" s="4"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H461" s="4"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H462" s="4"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H463" s="4"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H464" s="4"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H465" s="4"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H466" s="4"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H467" s="4"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H468" s="4"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H469" s="4"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H470" s="4"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H471" s="4"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H472" s="4"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H473" s="4"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H474" s="4"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H475" s="4"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H476" s="4"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H477" s="4"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H478" s="4"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H479" s="4"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H480" s="4"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H481" s="4"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H482" s="4"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H483" s="4"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H484" s="4"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H485" s="4"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H486" s="4"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H487" s="4"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H488" s="4"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H489" s="4"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H490" s="4"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H491" s="4"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H492" s="4"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H493" s="4"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H494" s="4"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H495" s="4"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H496" s="4"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H497" s="4"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H498" s="4"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H499" s="4"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H500" s="4"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H501" s="4"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H502" s="4"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H503" s="4"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H504" s="4"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H505" s="4"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H506" s="4"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H507" s="4"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H508" s="4"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H509" s="4"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H510" s="4"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H511" s="4"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H512" s="4"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H513" s="4"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H514" s="4"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H515" s="4"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H516" s="4"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H517" s="4"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H518" s="4"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H519" s="4"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H520" s="4"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H521" s="4"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H522" s="4"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H523" s="4"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H524" s="4"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H525" s="4"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H526" s="4"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H527" s="4"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H528" s="4"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H529" s="4"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H530" s="4"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H531" s="4"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H532" s="4"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H533" s="4"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H534" s="4"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H535" s="4"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H536" s="4"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H537" s="4"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H538" s="4"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H539" s="4"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H540" s="4"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H541" s="4"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H542" s="4"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H543" s="4"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H544" s="4"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H545" s="4"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H546" s="4"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H547" s="4"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H548" s="4"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H549" s="4"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H550" s="4"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H551" s="4"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H552" s="4"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H553" s="4"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H554" s="4"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H555" s="4"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H556" s="4"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H557" s="4"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H558" s="4"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H559" s="4"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H560" s="4"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H561" s="4"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H562" s="4"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H563" s="4"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H564" s="4"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H565" s="4"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H566" s="4"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H567" s="4"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H568" s="4"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H569" s="4"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H570" s="4"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H571" s="4"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H572" s="4"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H573" s="4"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H574" s="4"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H575" s="4"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H576" s="4"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H577" s="4"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H578" s="4"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H579" s="4"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H580" s="4"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H581" s="4"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H582" s="4"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H583" s="4"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H584" s="4"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H585" s="4"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H586" s="4"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H587" s="4"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H588" s="4"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H589" s="4"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H590" s="4"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H591" s="4"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H592" s="4"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H593" s="4"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H594" s="4"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H595" s="4"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H596" s="4"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H597" s="4"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H598" s="4"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H599" s="4"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H600" s="4"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H601" s="4"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H602" s="4"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H603" s="4"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H604" s="4"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H605" s="4"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H606" s="4"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H607" s="4"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H608" s="4"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H609" s="4"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H610" s="4"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H611" s="4"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H612" s="4"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H613" s="4"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H614" s="4"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H615" s="4"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H616" s="4"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H617" s="4"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H618" s="4"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H619" s="4"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H620" s="4"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H621" s="4"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H622" s="4"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H623" s="4"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H624" s="4"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H625" s="4"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H626" s="4"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H627" s="4"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H628" s="4"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H629" s="4"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H630" s="4"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H631" s="4"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H632" s="4"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H633" s="4"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H634" s="4"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H635" s="4"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H636" s="4"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H637" s="4"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H638" s="4"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H639" s="4"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H640" s="4"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H641" s="4"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H642" s="4"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H643" s="4"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H644" s="4"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H645" s="4"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H646" s="4"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H647" s="4"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H648" s="4"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H649" s="4"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H650" s="4"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H651" s="4"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H652" s="4"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H653" s="4"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H654" s="4"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H655" s="4"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H656" s="4"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H657" s="4"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H658" s="4"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H659" s="4"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H660" s="4"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H661" s="4"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H662" s="4"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H663" s="4"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H664" s="4"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H665" s="4"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H666" s="4"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H667" s="4"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H668" s="4"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H669" s="4"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H670" s="4"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H671" s="4"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H672" s="4"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H673" s="4"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H674" s="4"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H675" s="4"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H676" s="4"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H677" s="4"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H678" s="4"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H679" s="4"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H680" s="4"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H681" s="4"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H682" s="4"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H683" s="4"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H684" s="4"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H685" s="4"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H686" s="4"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H687" s="4"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H688" s="4"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H689" s="4"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H690" s="4"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H691" s="4"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H692" s="4"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H693" s="4"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H694" s="4"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H695" s="4"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H696" s="4"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H697" s="4"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H698" s="4"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H699" s="4"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H700" s="4"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H701" s="4"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H702" s="4"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H703" s="4"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H704" s="4"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H705" s="4"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H706" s="4"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H707" s="4"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H708" s="4"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H709" s="4"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H710" s="4"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H711" s="4"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H712" s="4"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H713" s="4"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H714" s="4"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H715" s="4"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H716" s="4"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H717" s="4"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H718" s="4"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H719" s="4"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H720" s="4"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H721" s="4"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H722" s="4"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H723" s="4"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H724" s="4"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H725" s="4"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H726" s="4"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H727" s="4"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H728" s="4"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H729" s="4"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H730" s="4"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H731" s="4"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H732" s="4"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H733" s="4"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H734" s="4"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H735" s="4"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H736" s="4"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H737" s="4"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H738" s="4"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H739" s="4"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H740" s="4"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H741" s="4"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H742" s="4"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H743" s="4"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H744" s="4"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H745" s="4"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H746" s="4"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H747" s="4"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H748" s="4"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H749" s="4"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H750" s="4"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H751" s="4"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H752" s="4"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H753" s="4"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H754" s="4"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H755" s="4"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H756" s="4"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H757" s="4"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H758" s="4"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H759" s="4"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H760" s="4"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H761" s="4"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H762" s="4"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H763" s="4"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H764" s="4"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H765" s="4"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H766" s="4"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H767" s="4"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H768" s="4"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H769" s="4"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H770" s="4"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H771" s="4"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H772" s="4"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H773" s="4"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H774" s="4"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H775" s="4"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H776" s="4"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H777" s="4"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H778" s="4"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H779" s="4"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H780" s="4"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H781" s="4"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H782" s="4"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H783" s="4"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H784" s="4"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H785" s="4"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H786" s="4"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H787" s="4"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H788" s="4"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H789" s="4"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H790" s="4"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H791" s="4"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H792" s="4"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H793" s="4"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H794" s="4"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H795" s="4"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H796" s="4"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H797" s="4"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H798" s="4"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H799" s="4"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H800" s="4"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H801" s="4"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H802" s="4"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H803" s="4"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H804" s="4"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H805" s="4"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H806" s="4"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H807" s="4"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H808" s="4"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H809" s="4"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H810" s="4"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H811" s="4"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H812" s="4"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H813" s="4"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H814" s="4"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H815" s="4"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H816" s="4"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H817" s="4"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H818" s="4"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H819" s="4"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H820" s="4"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H821" s="4"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H822" s="4"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H823" s="4"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H824" s="4"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H825" s="4"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H826" s="4"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H827" s="4"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H828" s="4"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H829" s="4"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H830" s="4"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H831" s="4"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H832" s="4"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H833" s="4"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H834" s="4"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H835" s="4"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H836" s="4"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H837" s="4"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H838" s="4"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H839" s="4"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H840" s="4"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H841" s="4"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H842" s="4"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H843" s="4"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H844" s="4"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H845" s="4"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H846" s="4"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H847" s="4"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H848" s="4"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H849" s="4"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H850" s="4"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H851" s="4"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H852" s="4"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H853" s="4"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H854" s="4"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H855" s="4"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H856" s="4"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H857" s="4"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H858" s="4"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H859" s="4"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H860" s="4"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H861" s="4"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H862" s="4"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H863" s="4"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H864" s="4"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H865" s="4"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H866" s="4"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H867" s="4"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H868" s="4"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H869" s="4"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H870" s="4"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H871" s="4"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H872" s="4"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H873" s="4"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H874" s="4"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H875" s="4"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H876" s="4"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H877" s="4"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H878" s="4"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H879" s="4"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H880" s="4"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H881" s="4"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H882" s="4"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H883" s="4"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H884" s="4"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H885" s="4"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H886" s="4"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H887" s="4"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H888" s="4"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H889" s="4"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H890" s="4"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H891" s="4"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H892" s="4"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H893" s="4"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H894" s="4"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H895" s="4"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H896" s="4"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H897" s="4"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H898" s="4"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H899" s="4"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H900" s="4"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H901" s="4"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H902" s="4"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H903" s="4"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H904" s="4"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H905" s="4"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H906" s="4"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H907" s="4"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H908" s="4"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H909" s="4"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H910" s="4"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H911" s="4"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H912" s="4"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H913" s="4"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H914" s="4"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H915" s="4"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H916" s="4"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H917" s="4"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H918" s="4"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H919" s="4"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H920" s="4"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H921" s="4"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H922" s="4"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H923" s="4"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H924" s="4"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H925" s="4"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H926" s="4"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H927" s="4"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H928" s="4"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H929" s="4"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H930" s="4"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H931" s="4"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H932" s="4"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H933" s="4"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H934" s="4"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H935" s="4"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H936" s="4"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H937" s="4"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H938" s="4"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H939" s="4"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H940" s="4"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H941" s="4"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H942" s="4"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H943" s="4"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H944" s="4"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H945" s="4"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H946" s="4"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H947" s="4"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H948" s="4"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H949" s="4"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H950" s="4"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H951" s="4"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H952" s="4"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H953" s="4"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H954" s="4"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H955" s="4"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H956" s="4"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H957" s="4"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H958" s="4"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H959" s="4"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H960" s="4"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H961" s="4"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H962" s="4"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H963" s="4"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H964" s="4"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H965" s="4"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H966" s="4"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H967" s="4"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H968" s="4"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H969" s="4"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H970" s="4"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H971" s="4"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H972" s="4"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H973" s="4"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H974" s="4"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H975" s="4"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H976" s="4"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H977" s="4"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H978" s="4"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H979" s="4"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H980" s="4"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H981" s="4"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H982" s="4"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H983" s="4"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H984" s="4"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H985" s="4"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H986" s="4"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H987" s="4"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H988" s="4"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H989" s="4"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H990" s="4"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H991" s="4"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H992" s="4"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H993" s="4"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H994" s="4"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H995" s="4"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H996" s="4"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H997" s="4"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H998" s="4"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H999" s="4"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1000" s="4"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1001" s="4"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1002" s="4"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1003" s="4"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1004" s="4"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1005" s="4"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1006" s="4"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1007" s="4"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1008" s="4"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1009" s="4"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1010" s="4"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1011" s="4"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1012" s="4"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1013" s="4"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1014" s="4"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1015" s="4"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1016" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -650,13 +3981,13 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="80.71"/>
@@ -668,47 +3999,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="17"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="17"/>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="17"/>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="19"/>
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -731,10 +4129,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.64"/>
@@ -746,44 +4144,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="17"/>
-      <c r="E7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="17"/>
-      <c r="E8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -812,7 +4218,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.81"/>
@@ -824,54 +4230,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="17"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="17"/>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="17"/>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="17"/>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/tools/import/schedule.xlsx
+++ b/tools/import/schedule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,96 +49,10 @@
     <t xml:space="preserve">Room ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Begrüßung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh je, Java ist nicht mehr kostenlos – und nun?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle hat sein Lizenzmodell geändert, ab JDK 11 kann es in Produktion nicht mehr kostenfrei eingesetzt werden. Seit Januar 2019 gibt es zudem keine freien Updates mehr für Oracles JDK 8. Was sind die Alternativen und wann ergibt der Einsatz welcher JDK-Version Sinn?
-Wir werfen einen Blick auf die Kosten für das Oracle JDK, auf die Preismodelle von anderen kommerziellen Anbietern sowie auf die freien Versionen. Wir diskutieren weiterhin, ob man bei Java 8 bleiben oder auf 11 beziehungsweise das aktuellste JDK-Release wechseln sollte und welche Konsequenzen das mit sich bringt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Reise durch die JDKs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viele von Euch, so wie ich, arbeiten im Job noch mit JDK 8. Daher möchte ich Euch mitnehmen auf die Reise durch die JDKs. Wir starten unsere Reise bei JDK 8 und wandern bis zur aktuellen Version. Außerdem wagen wir einen Blick auf die Attraktionen der zukünftigen Versionen. Wir halten unter anderem an folgenden Stationen:
-- Jshell
-- Private Methods in Interfaces
-- Optional class
-- Schlüsselwort "var"
-- Erweiterung der Collections
-- HttpClient/HttpRequest neues FluentAPI
-- Switch Expressions
-- Erweiterung der String-Klasse
-Diese werden zum Teil anhand von Quelltext-Beispielen veranschaulicht. Ich wünsche Euch eine gute Reise.
-P.S.: Bringt festes Schuhwerk mit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java und die GraalVM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die GraalVM ist eine universelle virtuelle Maschine (VM) für Anwendungen, die in JavaScript, Python, Ruby, R oder mit den JVM-basierten Programmiersprachen Java, Scala, Kotlin, Clojure und LLVM-basierten Sprachen wie C/C++ geschrieben wurden. Im August 2020 wird die GraalVM 20.2 freigegeben, mit Performance-Verbesserungen und polyglotter Unterstützung für verschiedene Programmiersprachen. Sie ermöglicht damit die Interoperabilität in einer gemeinsamen Laufzeitumgebung. GraalVM kann eigenständig oder im Kontext von OpenJDK, Node.js, Oracle-Datenbank oder MySQL betrieben werden.
-Mit GraalVMs Ahead-of-Time-Fähigkeit kompilierte Native Images verfügen über eine optimierte Start-up-Zeit und sie verringern den Memory-Verbrauch von JVM-basierten Applikationen. Die GraalVM kann wahlweise als Open Source Community Edition (CE) oder als Enterprise Edition (EE) mit OTN-Lizenz verwendet werden.
-Im Vortrag wird die GraalVM-Architektur im Java-Ökosystem dargestellt und die Einsatzgebiete werden erläutert, beispielsweise der in Java entwickelte C2 JIT Compiler oder die Verwendung von GraalVM Native Images. GraalVM und OpenJDK können auch für Microservices-Frameworks verwendet werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW</t>
+    <t xml:space="preserve">External URL</t>
   </si>
   <si>
     <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittagspause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse MicroProfile – der Java-Standard für die Cloud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Java Enterprise Edition hat sich über zwei Jahrzehnte entwickelt, um verteilte Anwendungen zu betreiben. Mit dem MicroProfile beginnt ein Reload von Java EE für Microservices und die Cloud. Bestehende Standards von Java EE werden weiter verwendet oder auch aussortiert. Neue Standards werden aufgenommen. 
-Mit der bald erscheinenden Version 4.0 ist das MicroProfile mehr als erwachsen geworden. Fast zeitgleich wird Jakarta EE in Version 9 erscheinen. Hier lohnt sich ein Blick, wie und ob diese beiden Standards miteinander interagieren und in Beziehung stehen. Das Hauptziel wird es aber sein, das Eclipse MicroProfile und seine einzelnen Teile kennenzulernen. Beispielhaft seien hier nur einige genannt, angefangen von Config, Health, Opentracing, Open-Api, Fault-Tolerance und vieles andere mehr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud-native Java mit Quarkus und MicroProfile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Innovationskraft der Java-Welt ist ungebrochen: Noch immer werden regelmäßig höchst interessante neue Projekte vorgestellt. Dieser praxisnahe Talk beleuchtet, wie zwei solche Projekte miteinander kombiniert werden können, um zeitgemäße Anwendungen für die Cloud zu entwickeln. MicroProfile bietet eine ganze Reihe nützlicher APIs für Cloud-basierte Anwendungen. Hierzu zählen die Unterstützung von Fault Tolerance, Open API, Health Checks, Metrics und Open Tracing. Mit Hilfe von Quarkus (und der GraalVM) werden daraus native Anwendungen, die innerhalb von Millisekunden starten und einen extrem kleinen Speicherverbrauch haben. Eine Beispielanwendung wird während des Talks live erstellt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software-Modularisierung – aber wie? Empfehlungen mit und gegen den Trend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software-Architektur ist zunächst etwas sehr Einfaches: Wir definieren klar abgegrenzte Bausteine und die Beziehungen zwischen diesen Bausteinen. Das war's. Mit etwas Mühe lassen sich in jeder Anwendung fachliche Schnitte finden, um die geforderten Bausteine voneinander abzugrenzen. Doch welche Modularisierungstechnik sollte man dabei wählen? Java Package? JAR? Jigsaw Modul? OSGI Bundle? ReSTful API? Microservice? Docker-Container? Kubernetes Pod? 
-In dieser Session möchte Thorsten Teilnehmerinnen und Teilnehmer ermutigen, Entscheidungen im Zweifel auch gegen den aktuellen Markthype und für die zu ihren Anforderungen passende Technik zu treffen. Dazu berichtet er über unsere selbst gemachten Erfahrungen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a match: Kotlin, Micronaut und GraalVM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das JVM-Framework Micronaut entwickelt sich zunehmend als Konkurrenz zum etablierten Spring Boot. Unter anderem deshalb, weil es das leistungsstarke und dennoch schlanke Framework schafft, Startzeit und Speicherverbrauch erheblich zu reduzieren. Dies macht es nicht nur für die Entwicklung containerisierter Microservices interessant, sondern auch für Serverless Computing. 
-Aber auch die Unterstützung von Kotlin als first-class Language – neben Java und Groovy – trägt zum Erfolg bei, finden doch immer mehr Entwickler Gefallen an der effizienten Java-Alternative. Zudem vereinfacht Micronaut die Entwicklung für Oracles GraalVM. Diese ermöglicht das Erzeugen nativer Images, die Startzeit und Speicherverbrauch nochmals senken. 
-Der Vortrag umfasst eine Einführung in Micronaut. Dazu wird – nach einer Vorstellung der grundlegenden Technologien – live ein Microservice mit Kotlin und Micronaut codiert. Anschließend wird der Service per GraalVM als natives Binary kompiliert. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
   </si>
   <si>
     <t xml:space="preserve">How to fill in this spreadsheet</t>
@@ -162,55 +76,10 @@
     <t xml:space="preserve">Avatar</t>
   </si>
   <si>
-    <t xml:space="preserve">Falk Sippach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12143_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Geberding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12111_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfgang Weigend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12024_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sascha Groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12145_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thilo Frotscher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12192_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorsten Maier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12141_1.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Keep the speaker IDs consistent between updates</t>
   </si>
   <si>
-    <t xml:space="preserve">Christian Schwörer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbstcampus.de/common/images/numbers/12353_1.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">- The avatar should be a URL to an image, but can be left blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hörsaal „Nürnberg“</t>
   </si>
   <si>
     <t xml:space="preserve">- Keep the room IDs consistent between updates</t>
@@ -622,7 +491,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="room_id" displayName="room_id" ref="A2:A1048576" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="H"/>
+    <tableColumn id="1" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -645,10 +514,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.72"/>
@@ -685,223 +554,64 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>44076.375</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>44076.3854166667</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>44076.3854166667</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>44076.4166666667</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>44076.4270833333</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>44076.4583333333</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>44076.46875</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>44076.5</v>
-      </c>
-      <c r="H5" s="4" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="L5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>44076.5</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>44076.5416666667</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>44076.5416666667</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>44076.5729166667</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>44076.5833333333</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>44076.6145833333</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>44076.625</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>44076.65625</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>44076.6666666667</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>44076.6979166667</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="N10" s="21"/>
     </row>
@@ -915,7 +625,7 @@
       <c r="H12" s="4"/>
       <c r="L12" s="19"/>
       <c r="M12" s="22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N12" s="21"/>
     </row>
@@ -923,7 +633,7 @@
       <c r="H13" s="4"/>
       <c r="L13" s="19"/>
       <c r="M13" s="22" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N13" s="21"/>
     </row>
@@ -931,7 +641,7 @@
       <c r="H14" s="4"/>
       <c r="L14" s="19"/>
       <c r="M14" s="22" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N14" s="21"/>
     </row>
@@ -939,7 +649,7 @@
       <c r="H15" s="4"/>
       <c r="L15" s="19"/>
       <c r="M15" s="22" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N15" s="21"/>
     </row>
@@ -3984,10 +3694,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="80.71"/>
@@ -3999,107 +3709,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="22" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G8" s="21"/>
     </row>
@@ -4129,10 +3772,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.64"/>
@@ -4144,15 +3787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,7 +3798,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -4175,14 +3810,14 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="19"/>
       <c r="E7" s="22" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="19"/>
       <c r="E8" s="22" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -4218,7 +3853,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.81"/>
@@ -4230,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,7 +3879,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G5" s="21"/>
     </row>
@@ -4256,21 +3891,21 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="19"/>
       <c r="F7" s="22" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="19"/>
       <c r="F8" s="22" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="19"/>
       <c r="F9" s="22" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G9" s="21"/>
     </row>

--- a/tools/import/schedule.xlsx
+++ b/tools/import/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Talks" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography</t>
   </si>
   <si>
     <t xml:space="preserve">- Keep the speaker IDs consistent between updates</t>
@@ -511,13 +514,13 @@
   </sheetPr>
   <dimension ref="A1:N1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.72"/>
@@ -3691,13 +3694,13 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="80.71"/>
@@ -3714,6 +3717,9 @@
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="16"/>
@@ -3735,14 +3741,14 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="19"/>
       <c r="F7" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="19"/>
       <c r="F8" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="21"/>
     </row>
@@ -3775,7 +3781,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.64"/>
@@ -3810,14 +3816,14 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="19"/>
       <c r="E7" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="19"/>
       <c r="E8" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -3853,7 +3859,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.81"/>
@@ -3868,7 +3874,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,21 +3897,21 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="19"/>
       <c r="F7" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="19"/>
       <c r="F8" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="19"/>
       <c r="F9" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="21"/>
     </row>
